--- a/Översikt LANDSKRONA.xlsx
+++ b/Översikt LANDSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>44333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45856</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/Översikt LANDSKRONA.xlsx
+++ b/Översikt LANDSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>44333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45856</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/Översikt LANDSKRONA.xlsx
+++ b/Översikt LANDSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>44333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45856</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/Översikt LANDSKRONA.xlsx
+++ b/Översikt LANDSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>44333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 36713-2023</t>
+          <t>A 35536-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45153</v>
+        <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -682,14 +682,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35536-2025</t>
+          <t>A 36713-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45856</v>
+        <v>45153</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>

--- a/Översikt LANDSKRONA.xlsx
+++ b/Översikt LANDSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>44333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,14 +625,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 35536-2025</t>
+          <t>A 36713-2023</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45856</v>
+        <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -682,14 +682,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 36713-2023</t>
+          <t>A 35536-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45153</v>
+        <v>45856</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>

--- a/Översikt LANDSKRONA.xlsx
+++ b/Översikt LANDSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>44333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45856</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/Översikt LANDSKRONA.xlsx
+++ b/Översikt LANDSKRONA.xlsx
@@ -575,7 +575,7 @@
         <v>44333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>45856</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
